--- a/artifacts/human_responses.xlsx
+++ b/artifacts/human_responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QUAN\Desktop\lbp_mri\artifacts\human_responses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QUAN\Desktop\lbp_mri\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{57C0B339-D0B9-4975-95A7-A960E3827D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E3D724-E96E-405A-AB54-571E60CC0571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="915" windowWidth="16440" windowHeight="28320" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Human_rad1(CLP)" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="186">
   <si>
     <t>ACR scenario</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t xml:space="preserve">11 year old Chinese male.  Left distal femur osteosarcoma post chemotherapy and limb salvage surgery 1 year ago.  Functionally independent, community ambulant without assistance. On examination, no obvious limb length discrepancy, no palpable mass at operative site, skin ok.  For MRI left knee and femur without and with IV contrast for surveillance.  </t>
-  </si>
-  <si>
-    <t>New symptomatic vertebral compression fracture (VCF) identified on radiographs. No known malignancy. Next imaging study.</t>
   </si>
   <si>
     <t>MRI spine area of interest without and with IV contrast</t>
@@ -590,7 +587,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1444,11 +1441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1459,7 +1456,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1477,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1500,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1508,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1523,7 +1520,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1546,7 +1543,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1569,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1592,7 +1589,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1615,7 +1612,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1638,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1661,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1684,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1707,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1730,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1753,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1776,7 +1773,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1799,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1822,7 +1819,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1845,7 +1842,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1868,7 +1865,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1891,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1914,7 +1911,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1937,7 +1934,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1960,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1983,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2006,7 +2003,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -2029,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2052,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -2075,7 +2072,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2098,7 +2095,7 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2121,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -2144,7 +2141,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2167,7 +2164,7 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2190,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2213,7 +2210,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2236,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2259,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2282,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2305,7 +2302,7 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2328,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2351,7 +2348,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2374,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2397,7 +2394,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2420,7 +2417,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2443,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2451,22 +2448,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
         <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2474,10 +2471,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
@@ -2489,7 +2486,7 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2497,10 +2494,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
@@ -2512,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2520,10 +2517,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -2535,7 +2532,7 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2543,10 +2540,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -2558,7 +2555,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2566,10 +2563,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
@@ -2581,7 +2578,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2589,13 +2586,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
         <v>126</v>
-      </c>
-      <c r="D50" t="s">
-        <v>127</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -2604,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2612,13 +2609,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -2627,7 +2624,7 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2635,10 +2632,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
@@ -2650,7 +2647,7 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2658,14 +2655,14 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
@@ -2673,7 +2670,7 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2681,14 +2678,14 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
         <v>136</v>
       </c>
-      <c r="D54" t="s">
-        <v>137</v>
-      </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2704,14 +2701,14 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
         <v>139</v>
       </c>
-      <c r="D55" t="s">
-        <v>140</v>
-      </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2727,14 +2724,14 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="D56" t="s">
-        <v>143</v>
-      </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2750,13 +2747,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
         <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>146</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
@@ -2765,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2773,13 +2770,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -2788,7 +2785,7 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2796,13 +2793,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -2811,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2819,13 +2816,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
         <v>152</v>
-      </c>
-      <c r="D60" t="s">
-        <v>153</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
@@ -2834,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2842,10 +2839,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
@@ -2857,7 +2854,7 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2865,10 +2862,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
         <v>56</v>
@@ -2877,10 +2874,10 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2888,10 +2885,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>36</v>
@@ -2900,10 +2897,10 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2911,10 +2908,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
         <v>36</v>
@@ -2923,10 +2920,10 @@
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2934,10 +2931,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
         <v>56</v>
@@ -2946,10 +2943,10 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2957,22 +2954,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
         <v>166</v>
       </c>
-      <c r="D66" t="s">
-        <v>167</v>
-      </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2980,22 +2977,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -3003,10 +3000,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -3015,10 +3012,10 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -3026,22 +3023,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
         <v>173</v>
       </c>
-      <c r="D69" t="s">
-        <v>174</v>
-      </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3049,10 +3046,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -3061,10 +3058,10 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -3072,22 +3069,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3096,18 +3093,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -3125,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3148,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -3156,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -3171,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3194,7 +3191,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -3217,7 +3214,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -3240,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -3263,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -3286,7 +3283,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -3309,7 +3306,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -3332,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -3355,7 +3352,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -3378,7 +3375,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3401,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -3424,7 +3421,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3447,7 +3444,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -3470,7 +3467,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -3493,7 +3490,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -3516,7 +3513,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -3539,7 +3536,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -3562,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3585,7 +3582,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -3608,7 +3605,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -3631,7 +3628,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -3654,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -3677,7 +3674,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -3700,7 +3697,7 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -3723,7 +3720,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -3746,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -3769,7 +3766,7 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -3792,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -3815,7 +3812,7 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -3838,7 +3835,7 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -3861,7 +3858,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -3884,7 +3881,7 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -3907,7 +3904,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -3930,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -3953,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -3976,7 +3973,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -3999,7 +3996,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -4022,7 +4019,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -4045,7 +4042,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -4068,7 +4065,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -4091,7 +4088,7 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -4099,22 +4096,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
         <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -4122,10 +4119,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
@@ -4137,7 +4134,7 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -4145,10 +4142,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
@@ -4160,7 +4157,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -4168,10 +4165,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -4183,7 +4180,7 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -4191,10 +4188,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -4206,7 +4203,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -4214,10 +4211,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
@@ -4229,7 +4226,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -4237,13 +4234,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
         <v>126</v>
-      </c>
-      <c r="D50" t="s">
-        <v>127</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -4252,7 +4249,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -4260,13 +4257,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -4275,7 +4272,7 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -4283,10 +4280,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
@@ -4298,7 +4295,7 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -4306,14 +4303,14 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -4329,14 +4326,14 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
         <v>136</v>
       </c>
-      <c r="D54" t="s">
-        <v>137</v>
-      </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
@@ -4344,7 +4341,7 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -4352,14 +4349,14 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
         <v>139</v>
       </c>
-      <c r="D55" t="s">
-        <v>140</v>
-      </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
@@ -4367,7 +4364,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -4375,14 +4372,14 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="D56" t="s">
-        <v>143</v>
-      </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
@@ -4390,7 +4387,7 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -4398,13 +4395,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
         <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>146</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
@@ -4413,7 +4410,7 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -4421,13 +4418,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -4436,7 +4433,7 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -4444,13 +4441,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -4459,7 +4456,7 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -4467,13 +4464,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
         <v>152</v>
-      </c>
-      <c r="D60" t="s">
-        <v>153</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
@@ -4482,7 +4479,7 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -4490,10 +4487,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
@@ -4505,7 +4502,7 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -4513,10 +4510,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
         <v>56</v>
@@ -4525,10 +4522,10 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -4536,10 +4533,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>36</v>
@@ -4548,10 +4545,10 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -4559,10 +4556,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
         <v>36</v>
@@ -4571,10 +4568,10 @@
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -4582,10 +4579,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
         <v>56</v>
@@ -4594,10 +4591,10 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -4605,22 +4602,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
         <v>166</v>
       </c>
-      <c r="D66" t="s">
-        <v>167</v>
-      </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -4628,22 +4625,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -4651,10 +4648,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -4663,10 +4660,10 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -4674,22 +4671,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
         <v>173</v>
       </c>
-      <c r="D69" t="s">
-        <v>174</v>
-      </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -4697,10 +4694,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -4709,10 +4706,10 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -4720,22 +4717,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4744,18 +4741,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -4773,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4796,7 +4793,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -4804,7 +4801,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -4819,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -4842,7 +4839,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -4865,7 +4862,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4888,7 +4885,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -4911,7 +4908,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -4934,7 +4931,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -4957,7 +4954,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4980,7 +4977,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -5003,7 +5000,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -5026,7 +5023,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -5049,7 +5046,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -5072,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -5095,7 +5092,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -5118,7 +5115,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -5141,7 +5138,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -5164,7 +5161,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -5187,7 +5184,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -5210,7 +5207,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -5233,7 +5230,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -5256,7 +5253,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -5279,7 +5276,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -5302,7 +5299,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -5325,7 +5322,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -5348,7 +5345,7 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -5371,7 +5368,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -5394,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -5417,7 +5414,7 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -5440,7 +5437,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -5463,7 +5460,7 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -5486,7 +5483,7 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -5509,7 +5506,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -5532,7 +5529,7 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -5555,7 +5552,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -5578,7 +5575,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -5601,7 +5598,7 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -5624,7 +5621,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -5647,7 +5644,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -5670,7 +5667,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -5693,7 +5690,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -5716,7 +5713,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -5739,7 +5736,7 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -5747,22 +5744,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
         <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -5770,10 +5767,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
@@ -5785,7 +5782,7 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -5793,10 +5790,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
@@ -5808,7 +5805,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -5816,10 +5813,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -5831,7 +5828,7 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -5839,10 +5836,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -5854,7 +5851,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -5862,10 +5859,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
@@ -5877,7 +5874,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -5885,13 +5882,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
         <v>126</v>
-      </c>
-      <c r="D50" t="s">
-        <v>127</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -5900,7 +5897,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -5908,13 +5905,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -5923,7 +5920,7 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -5931,10 +5928,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
@@ -5946,7 +5943,7 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -5954,14 +5951,14 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
@@ -5969,7 +5966,7 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -5977,14 +5974,14 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
         <v>136</v>
       </c>
-      <c r="D54" t="s">
-        <v>137</v>
-      </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
@@ -5992,7 +5989,7 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -6000,14 +5997,14 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
         <v>139</v>
       </c>
-      <c r="D55" t="s">
-        <v>140</v>
-      </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
@@ -6015,7 +6012,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -6023,14 +6020,14 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="D56" t="s">
-        <v>143</v>
-      </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
@@ -6038,7 +6035,7 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -6046,13 +6043,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
         <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>146</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
@@ -6061,7 +6058,7 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -6069,13 +6066,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -6084,7 +6081,7 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -6092,13 +6089,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -6107,7 +6104,7 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -6115,13 +6112,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
         <v>152</v>
-      </c>
-      <c r="D60" t="s">
-        <v>153</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
@@ -6130,7 +6127,7 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -6138,10 +6135,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
@@ -6153,7 +6150,7 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -6161,10 +6158,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
         <v>56</v>
@@ -6173,10 +6170,10 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -6184,10 +6181,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>36</v>
@@ -6196,10 +6193,10 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -6207,10 +6204,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
         <v>36</v>
@@ -6219,10 +6216,10 @@
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -6230,10 +6227,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
         <v>56</v>
@@ -6242,10 +6239,10 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -6253,22 +6250,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
         <v>166</v>
       </c>
-      <c r="D66" t="s">
-        <v>167</v>
-      </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -6276,22 +6273,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -6299,10 +6296,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -6311,10 +6308,10 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -6322,22 +6319,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
         <v>173</v>
       </c>
-      <c r="D69" t="s">
-        <v>174</v>
-      </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -6345,10 +6342,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -6357,10 +6354,10 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -6368,22 +6365,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6392,11 +6389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6406,7 +6403,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -6424,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -6447,7 +6444,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -6455,7 +6452,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -6470,7 +6467,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -6493,7 +6490,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -6516,7 +6513,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -6539,7 +6536,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -6562,7 +6559,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -6585,7 +6582,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -6608,7 +6605,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -6631,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -6654,7 +6651,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -6677,7 +6674,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -6700,7 +6697,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -6723,7 +6720,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -6746,7 +6743,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -6769,7 +6766,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -6792,7 +6789,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -6815,7 +6812,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -6838,7 +6835,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -6861,7 +6858,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -6884,7 +6881,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -6907,7 +6904,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -6930,7 +6927,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -6953,7 +6950,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -6976,7 +6973,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -6999,7 +6996,7 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -7022,7 +7019,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -7045,7 +7042,7 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -7068,7 +7065,7 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -7091,7 +7088,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -7114,7 +7111,7 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -7137,7 +7134,7 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -7160,7 +7157,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -7183,7 +7180,7 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -7206,7 +7203,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -7229,7 +7226,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -7252,7 +7249,7 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -7275,7 +7272,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -7298,7 +7295,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -7321,7 +7318,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -7344,7 +7341,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -7367,7 +7364,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -7390,7 +7387,7 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -7398,22 +7395,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
         <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -7421,10 +7418,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
@@ -7436,7 +7433,7 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -7444,10 +7441,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
@@ -7459,7 +7456,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -7467,10 +7464,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -7482,7 +7479,7 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -7490,10 +7487,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -7505,7 +7502,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -7513,10 +7510,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
@@ -7528,7 +7525,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -7536,13 +7533,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
         <v>126</v>
-      </c>
-      <c r="D50" t="s">
-        <v>127</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -7551,7 +7548,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -7559,13 +7556,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -7574,7 +7571,7 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -7582,10 +7579,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
@@ -7597,7 +7594,7 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -7605,14 +7602,14 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
@@ -7620,7 +7617,7 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -7628,14 +7625,14 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
         <v>136</v>
       </c>
-      <c r="D54" t="s">
-        <v>137</v>
-      </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
@@ -7643,7 +7640,7 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -7651,14 +7648,14 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
         <v>139</v>
       </c>
-      <c r="D55" t="s">
-        <v>140</v>
-      </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
@@ -7666,7 +7663,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -7674,14 +7671,14 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="D56" t="s">
-        <v>143</v>
-      </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
@@ -7689,7 +7686,7 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -7697,13 +7694,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
         <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>146</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
@@ -7712,7 +7709,7 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -7720,13 +7717,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -7735,7 +7732,7 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -7743,13 +7740,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -7758,7 +7755,7 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -7766,13 +7763,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
         <v>152</v>
-      </c>
-      <c r="D60" t="s">
-        <v>153</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
@@ -7781,7 +7778,7 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -7789,10 +7786,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
@@ -7804,7 +7801,7 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -7812,10 +7809,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
         <v>56</v>
@@ -7824,10 +7821,10 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -7835,10 +7832,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>36</v>
@@ -7847,10 +7844,10 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -7858,10 +7855,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
         <v>36</v>
@@ -7870,10 +7867,10 @@
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -7881,10 +7878,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
         <v>56</v>
@@ -7893,10 +7890,10 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -7904,22 +7901,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
         <v>166</v>
       </c>
-      <c r="D66" t="s">
-        <v>167</v>
-      </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -7927,22 +7924,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -7950,10 +7947,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -7962,10 +7959,10 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -7973,22 +7970,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
         <v>173</v>
       </c>
-      <c r="D69" t="s">
-        <v>174</v>
-      </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -7996,10 +7993,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -8008,10 +8005,10 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -8019,22 +8016,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -8043,18 +8040,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -8072,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -8095,7 +8092,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -8103,7 +8100,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -8118,7 +8115,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -8141,7 +8138,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -8164,7 +8161,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -8187,7 +8184,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -8210,7 +8207,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -8233,7 +8230,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -8256,7 +8253,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -8279,7 +8276,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -8302,7 +8299,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -8325,7 +8322,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -8348,7 +8345,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -8371,7 +8368,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -8394,7 +8391,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -8417,7 +8414,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -8440,7 +8437,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -8463,7 +8460,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -8486,7 +8483,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -8509,7 +8506,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -8532,7 +8529,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -8555,7 +8552,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -8578,7 +8575,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -8601,7 +8598,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -8624,7 +8621,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -8647,7 +8644,7 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -8670,7 +8667,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -8693,7 +8690,7 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -8716,7 +8713,7 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -8739,7 +8736,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -8762,7 +8759,7 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -8785,7 +8782,7 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -8808,7 +8805,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -8831,7 +8828,7 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -8854,7 +8851,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -8877,7 +8874,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -8900,7 +8897,7 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -8923,7 +8920,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -8946,7 +8943,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -8969,7 +8966,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -8992,7 +8989,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -9015,7 +9012,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -9038,7 +9035,7 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -9046,22 +9043,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
         <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -9069,10 +9066,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
@@ -9084,7 +9081,7 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -9092,10 +9089,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
@@ -9107,7 +9104,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -9115,10 +9112,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -9130,7 +9127,7 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -9138,10 +9135,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -9153,7 +9150,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -9161,10 +9158,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
@@ -9176,7 +9173,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -9184,13 +9181,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
         <v>126</v>
-      </c>
-      <c r="D50" t="s">
-        <v>127</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -9199,7 +9196,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -9207,13 +9204,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -9222,7 +9219,7 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -9230,10 +9227,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
@@ -9245,7 +9242,7 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -9253,14 +9250,14 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
@@ -9268,7 +9265,7 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -9276,14 +9273,14 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
         <v>136</v>
       </c>
-      <c r="D54" t="s">
-        <v>137</v>
-      </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
@@ -9291,7 +9288,7 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -9299,14 +9296,14 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
         <v>139</v>
       </c>
-      <c r="D55" t="s">
-        <v>140</v>
-      </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
@@ -9314,7 +9311,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -9322,14 +9319,14 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="D56" t="s">
-        <v>143</v>
-      </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
@@ -9337,7 +9334,7 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -9345,13 +9342,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
         <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>146</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
@@ -9360,7 +9357,7 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -9368,13 +9365,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -9383,7 +9380,7 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -9391,13 +9388,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -9406,7 +9403,7 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -9414,13 +9411,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
         <v>152</v>
-      </c>
-      <c r="D60" t="s">
-        <v>153</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
@@ -9429,7 +9426,7 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -9437,10 +9434,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
@@ -9452,7 +9449,7 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -9460,10 +9457,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
         <v>56</v>
@@ -9472,10 +9469,10 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -9483,10 +9480,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>36</v>
@@ -9495,10 +9492,10 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -9506,10 +9503,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
         <v>36</v>
@@ -9518,10 +9515,10 @@
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -9529,10 +9526,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
         <v>56</v>
@@ -9541,10 +9538,10 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -9552,22 +9549,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
         <v>166</v>
       </c>
-      <c r="D66" t="s">
-        <v>167</v>
-      </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -9575,22 +9572,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -9598,10 +9595,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -9610,10 +9607,10 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -9621,22 +9618,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
         <v>173</v>
       </c>
-      <c r="D69" t="s">
-        <v>174</v>
-      </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -9644,10 +9641,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -9656,10 +9653,10 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -9667,22 +9664,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
